--- a/hr_vacation_import_it/sample_import_file/hr_rest_import_template.xlsx
+++ b/hr_vacation_import_it/sample_import_file/hr_rest_import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODOO15-ENTERPRISE\server\extra-addons\planillas_rrhh\payroll_it\hr_vacation_import_it\sample_import_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0428FCDE-0033-46A4-94D1-E894633D7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9BA37E-D392-4962-9715-A0530562DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>Nro Doc Empleado</t>
   </si>
   <si>
@@ -38,11 +35,17 @@
   <si>
     <t>Importe</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -89,6 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +410,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,21 +430,21 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2023</v>
+      <c r="A2" s="4">
+        <v>45107</v>
       </c>
       <c r="B2" s="1">
         <v>33346314</v>
@@ -454,8 +458,8 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2023</v>
+      <c r="A3" s="4">
+        <v>45107</v>
       </c>
       <c r="B3" s="1">
         <v>42406045</v>
@@ -469,8 +473,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2023</v>
+      <c r="A4" s="4">
+        <v>45107</v>
       </c>
       <c r="B4" s="1">
         <v>10736179</v>
